--- a/data/trans_dic/IP09B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09B02-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>63,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>78,76%</t>
+          <t>62,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>50,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>62,63%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>71,32%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,52; 85,55</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,91; 67,54</t>
+          <t>15,55; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,62; 70,73</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,76; 77,84</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,21; 91,5</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,46; 71,93</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,91; 60,58</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,52; 97,93</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>63,83; 84,62</t>
+          <t>15,41; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>43,47; 64,3</t>
+          <t>47,52; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,69; 60,42</t>
+          <t>0,0; 86,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>61,86; 84,17</t>
+          <t>29,73; 100,0</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66,88%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>53,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>62,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>68,13%</t>
+          <t>78,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>57,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>76,67%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>54,46%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>47,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>74,22%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,07; 94,44</t>
+          <t>60,52; 85,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,28; 80,12</t>
+          <t>36,91; 67,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,25; 70,81</t>
+          <t>32,62; 70,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,93; 83,71</t>
+          <t>44,76; 77,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,44; 82,83</t>
+          <t>58,21; 91,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,65; 79,53</t>
+          <t>41,46; 71,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,3; 92,0</t>
+          <t>24,91; 60,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,48; 76,44</t>
+          <t>74,52; 97,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,84; 86,14</t>
+          <t>63,83; 84,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,43; 76,67</t>
+          <t>43,47; 64,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,99; 73,6</t>
+          <t>33,69; 60,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,29; 75,89</t>
+          <t>61,86; 84,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>63,15%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>70,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>62,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>59,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>82,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62,63%</t>
+          <t>75,55%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>64,85%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>71,32%</t>
+          <t>73,98%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>60,69; 95,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 100,0</t>
+          <t>53,63; 84,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>41,78; 92,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>45,97; 84,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>31,15; 86,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>39,87; 74,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>32,94; 81,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>56,69; 94,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 100,0</t>
+          <t>59,29; 86,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,52; 100,0</t>
+          <t>52,5; 75,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 86,97</t>
+          <t>46,01; 79,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,73; 100,0</t>
+          <t>59,01; 85,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,12%</t>
+          <t>85,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,65%</t>
+          <t>66,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>70,6%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>70,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>56,5%</t>
+          <t>61,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>72,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>82,25%</t>
+          <t>54,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>75,55%</t>
+          <t>76,67%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>64,69%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>64,85%</t>
+          <t>56,84%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>64,65%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,69; 95,65</t>
+          <t>70,07; 94,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,63; 84,81</t>
+          <t>50,28; 80,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,78; 92,47</t>
+          <t>22,25; 70,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,97; 84,88</t>
+          <t>53,93; 83,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,15; 86,34</t>
+          <t>48,44; 82,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,87; 74,29</t>
+          <t>41,65; 79,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,94; 81,85</t>
+          <t>42,3; 92,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,69; 94,65</t>
+          <t>33,48; 76,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,29; 86,88</t>
+          <t>64,84; 86,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,5; 75,28</t>
+          <t>53,43; 76,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,01; 79,97</t>
+          <t>37,99; 73,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>59,01; 85,52</t>
+          <t>51,29; 75,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09B02-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,41; 100,0</t>
+          <t>12,09; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>47,52; 100,0</t>
+          <t>46,29; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,19; 100,0</t>
+          <t>74,18; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,79; 83,17</t>
+          <t>37,85; 82,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,74; 91,41</t>
+          <t>33,04; 91,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,0; 100,0</t>
+          <t>82,87; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,36; 92,36</t>
+          <t>46,83; 92,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,61; 93,75</t>
+          <t>48,77; 93,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 78,64</t>
+          <t>10,18; 70,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,75; 100,0</t>
+          <t>75,31; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,95; 94,59</t>
+          <t>71,1; 94,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,14; 84,07</t>
+          <t>50,46; 84,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,16; 75,22</t>
+          <t>33,67; 74,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>84,6; 98,81</t>
+          <t>85,33; 99,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,52; 85,55</t>
+          <t>58,24; 87,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,91; 67,54</t>
+          <t>36,25; 65,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,62; 70,73</t>
+          <t>34,64; 71,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,76; 77,84</t>
+          <t>44,71; 76,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,21; 91,5</t>
+          <t>57,79; 91,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,46; 71,93</t>
+          <t>41,34; 71,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,91; 60,58</t>
+          <t>25,3; 59,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,52; 97,93</t>
+          <t>72,33; 97,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,83; 84,62</t>
+          <t>64,55; 84,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,47; 64,3</t>
+          <t>44,08; 65,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,69; 60,42</t>
+          <t>34,4; 61,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,86; 84,17</t>
+          <t>61,65; 84,42</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,69; 95,65</t>
+          <t>63,11; 95,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,63; 84,81</t>
+          <t>54,53; 84,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,78; 92,47</t>
+          <t>45,3; 92,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,97; 84,88</t>
+          <t>45,54; 84,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,15; 86,34</t>
+          <t>32,18; 86,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,87; 74,29</t>
+          <t>39,29; 74,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,94; 81,85</t>
+          <t>32,06; 80,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,69; 94,65</t>
+          <t>59,25; 94,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,29; 86,88</t>
+          <t>60,23; 88,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,5; 75,28</t>
+          <t>53,1; 75,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>46,01; 79,97</t>
+          <t>45,36; 80,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,01; 85,52</t>
+          <t>59,64; 85,46</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,07; 94,44</t>
+          <t>70,84; 94,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,28; 80,12</t>
+          <t>50,65; 81,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,25; 70,81</t>
+          <t>21,93; 68,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53,93; 83,71</t>
+          <t>54,24; 83,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,44; 82,83</t>
+          <t>47,71; 82,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,65; 79,53</t>
+          <t>42,45; 77,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,3; 92,0</t>
+          <t>45,43; 92,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,48; 76,44</t>
+          <t>34,22; 77,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>64,84; 86,14</t>
+          <t>65,44; 86,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53,43; 76,67</t>
+          <t>53,9; 76,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,99; 73,6</t>
+          <t>39,44; 74,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,29; 75,89</t>
+          <t>50,22; 75,92</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74,61; 87,96</t>
+          <t>74,36; 87,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,32; 70,98</t>
+          <t>54,32; 70,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,35; 66,85</t>
+          <t>45,06; 66,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,35; 80,68</t>
+          <t>63,41; 80,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>59,04; 79,53</t>
+          <t>59,88; 79,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,97; 70,41</t>
+          <t>54,08; 70,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,66; 62,55</t>
+          <t>39,44; 63,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,1; 86,66</t>
+          <t>69,28; 87,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>71,76; 83,16</t>
+          <t>71,36; 83,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>56,39; 68,05</t>
+          <t>56,77; 68,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>45,34; 61,22</t>
+          <t>45,02; 61,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>68,87; 80,85</t>
+          <t>69,06; 81,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09B02-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 100,0</t>
+          <t>21,37; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 100,0</t>
+          <t>22,51; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,29; 100,0</t>
+          <t>45,01; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,73; 100,0</t>
+          <t>28,22; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,18; 100,0</t>
+          <t>74,73; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,85; 82,91</t>
+          <t>38,26; 88,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,04; 91,19</t>
+          <t>39,67; 91,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,87; 100,0</t>
+          <t>82,19; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,83; 92,41</t>
+          <t>40,16; 92,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,77; 93,67</t>
+          <t>47,54; 93,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 70,72</t>
+          <t>10,11; 77,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,31; 100,0</t>
+          <t>73,2; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,1; 94,58</t>
+          <t>71,97; 94,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,46; 84,76</t>
+          <t>52,56; 84,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,67; 74,49</t>
+          <t>33,73; 73,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,33; 99,0</t>
+          <t>82,91; 98,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,24; 87,57</t>
+          <t>60,68; 87,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,25; 65,95</t>
+          <t>36,57; 66,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,64; 71,35</t>
+          <t>34,91; 72,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,71; 76,78</t>
+          <t>45,09; 76,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,79; 91,52</t>
+          <t>57,83; 91,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,34; 71,22</t>
+          <t>43,74; 71,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,3; 59,37</t>
+          <t>25,16; 59,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,33; 97,95</t>
+          <t>74,6; 97,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,55; 84,74</t>
+          <t>65,5; 86,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,08; 65,29</t>
+          <t>43,84; 65,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>34,4; 61,31</t>
+          <t>34,85; 59,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,65; 84,42</t>
+          <t>61,06; 84,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,11; 95,34</t>
+          <t>61,47; 95,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,53; 84,19</t>
+          <t>55,17; 83,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,3; 92,24</t>
+          <t>40,8; 92,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,54; 84,32</t>
+          <t>45,91; 85,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,18; 86,48</t>
+          <t>32,79; 85,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,29; 74,1</t>
+          <t>38,98; 74,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,06; 80,41</t>
+          <t>32,25; 82,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,25; 94,65</t>
+          <t>57,59; 94,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,23; 88,48</t>
+          <t>60,0; 87,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,1; 75,89</t>
+          <t>53,02; 75,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,36; 80,09</t>
+          <t>45,7; 80,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,64; 85,46</t>
+          <t>58,54; 84,02</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,84; 94,31</t>
+          <t>68,95; 94,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,65; 81,2</t>
+          <t>50,48; 81,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,93; 68,19</t>
+          <t>22,06; 67,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>54,24; 83,93</t>
+          <t>55,45; 83,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,71; 82,28</t>
+          <t>47,87; 82,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,45; 77,65</t>
+          <t>43,12; 76,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>45,43; 92,52</t>
+          <t>42,39; 92,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,22; 77,49</t>
+          <t>32,36; 74,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>65,44; 86,35</t>
+          <t>63,6; 85,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53,9; 76,18</t>
+          <t>52,1; 76,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>39,44; 74,15</t>
+          <t>38,49; 71,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,22; 75,92</t>
+          <t>51,63; 76,19</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74,36; 87,96</t>
+          <t>73,9; 88,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>54,32; 70,86</t>
+          <t>54,65; 70,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,06; 66,11</t>
+          <t>44,25; 65,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,41; 80,24</t>
+          <t>61,88; 80,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>59,88; 79,74</t>
+          <t>60,24; 80,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,08; 70,67</t>
+          <t>52,31; 70,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,44; 63,5</t>
+          <t>40,2; 63,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,28; 87,36</t>
+          <t>69,34; 87,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>71,36; 83,15</t>
+          <t>71,75; 83,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>56,77; 68,45</t>
+          <t>56,67; 68,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>45,02; 61,92</t>
+          <t>45,05; 61,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>69,06; 81,3</t>
+          <t>68,69; 80,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09B02-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que les afecta para realizar actividades como pasear, hacer deporte,... dicha enfermedad, dolencia..</t>
+          <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades como pasear, ir al cine, hacer deporte, etc</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,15%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>79,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>68,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>59,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>62,63%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>73,5%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>71,32%</t>
+          <t>92,79%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>42,94; 90,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,37; 100,0</t>
+          <t>56,82; 95,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>11,57; 75,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>76,48; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>70,12; 96,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>45,63; 86,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>30,82; 81,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>77,79; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,51; 100,0</t>
+          <t>66,44; 92,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,01; 100,0</t>
+          <t>56,13; 84,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 86,97</t>
+          <t>31,56; 70,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,22; 100,0</t>
+          <t>83,1; 98,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>78,76%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>57,87%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41,8%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>91,74%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>63,77%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>67,03%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>96,72%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>75,11%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>74,8%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>53,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>63,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>69,25%</t>
+          <t>54,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>53,98%</t>
+          <t>47,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>76,1%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,73; 100,0</t>
+          <t>58,21; 91,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,26; 88,19</t>
+          <t>41,46; 71,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,67; 91,12</t>
+          <t>24,91; 60,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,19; 100,0</t>
+          <t>76,55; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,16; 92,39</t>
+          <t>60,52; 85,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,54; 93,65</t>
+          <t>36,91; 67,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 77,28</t>
+          <t>32,62; 70,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>73,2; 100,0</t>
+          <t>45,84; 78,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,97; 94,61</t>
+          <t>63,83; 84,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,56; 84,83</t>
+          <t>43,47; 64,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,73; 73,81</t>
+          <t>33,69; 60,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>82,91; 98,87</t>
+          <t>63,98; 86,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>62,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>59,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>83,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>78,76%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>70,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>70,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>69,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>75,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>64,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>75,54%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,68; 87,62</t>
+          <t>31,15; 86,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,57; 66,54</t>
+          <t>39,87; 74,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,91; 72,97</t>
+          <t>32,94; 81,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,09; 76,62</t>
+          <t>57,59; 94,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,83; 91,47</t>
+          <t>60,69; 95,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,74; 71,55</t>
+          <t>53,63; 84,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,16; 59,66</t>
+          <t>41,78; 92,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,6; 97,96</t>
+          <t>48,44; 85,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,5; 86,12</t>
+          <t>59,29; 86,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,84; 65,92</t>
+          <t>52,5; 75,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>34,85; 59,27</t>
+          <t>46,01; 79,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,06; 84,13</t>
+          <t>60,69; 86,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>82,12%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,65%</t>
+          <t>61,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,6%</t>
+          <t>72,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>85,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,5%</t>
+          <t>66,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>82,25%</t>
+          <t>71,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>75,55%</t>
+          <t>76,67%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>64,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>64,85%</t>
+          <t>56,84%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>65,77%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,47; 95,29</t>
+          <t>48,44; 82,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,17; 83,23</t>
+          <t>41,65; 79,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,8; 92,14</t>
+          <t>42,3; 92,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,91; 85,09</t>
+          <t>34,52; 76,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,79; 85,69</t>
+          <t>70,07; 94,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,98; 74,51</t>
+          <t>50,28; 80,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,25; 82,43</t>
+          <t>22,25; 70,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>57,59; 94,88</t>
+          <t>54,98; 84,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,0; 87,95</t>
+          <t>64,84; 86,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,02; 75,48</t>
+          <t>53,43; 76,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,7; 80,57</t>
+          <t>37,99; 73,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>58,54; 84,02</t>
+          <t>52,62; 76,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>70,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>66,88%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>68,13%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>63,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>76,67%</t>
+          <t>77,5%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>76,88%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68,95; 94,3</t>
+          <t>59,04; 79,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,48; 81,13</t>
+          <t>52,97; 70,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,06; 67,06</t>
+          <t>39,66; 62,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55,45; 83,2</t>
+          <t>70,22; 88,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,87; 82,96</t>
+          <t>74,61; 87,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,12; 76,93</t>
+          <t>55,32; 70,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,39; 92,45</t>
+          <t>43,35; 66,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,36; 74,66</t>
+          <t>66,16; 83,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>63,6; 85,63</t>
+          <t>71,76; 83,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,1; 76,08</t>
+          <t>56,39; 68,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>38,49; 71,67</t>
+          <t>45,34; 61,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,63; 76,19</t>
+          <t>70,55; 83,15</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>81,98%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>63,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>55,26%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>72,05%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>70,89%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>62,34%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>51,34%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>79,49%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>77,5%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>62,75%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>53,38%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>75,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>73,9; 88,28</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>54,65; 70,96</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>44,25; 65,7</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>61,88; 80,32</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>60,24; 80,3</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>52,31; 70,35</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>40,2; 63,4</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>69,34; 87,56</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>71,75; 83,11</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>56,67; 68,3</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>45,05; 61,91</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>68,69; 80,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
